--- a/config/variablesOPC.xlsx
+++ b/config/variablesOPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DataBox\Desktop\PaginaVigilancia\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b6bc00278fd529/Escritorio/LINQ/2.-NARRU/HMI/Demo_30092021/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB7A8B9-B797-4B64-8853-531B239F4F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{139653F1-5F7F-4DCE-AB2E-3EC64FF4808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23B7CC2-DBB3-45E7-AFB3-F1656032782C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BF58630C-583D-264A-A157-458B35154DBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{BF58630C-583D-264A-A157-458B35154DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="OPC-UA SERVERS" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
   <si>
     <t>nodeId</t>
   </si>
@@ -286,12 +286,6 @@
     <t>opc.tcp://192.168.250.1:54841</t>
   </si>
   <si>
-    <t>ns=4;s=LD90_Status.StateofCharge</t>
-  </si>
-  <si>
-    <t>opc.tcp://192.168.100.128:54841</t>
-  </si>
-  <si>
     <t>ns=4;s=GoGoal</t>
   </si>
   <si>
@@ -332,13 +326,22 @@
   </si>
   <si>
     <t>ns=4;s=Dock</t>
+  </si>
+  <si>
+    <t>ns=4;s=AGV_battery</t>
+  </si>
+  <si>
+    <t>opc.tcp://LAPTOP-P2F2VSD7:48010</t>
+  </si>
+  <si>
+    <t>opc.tcp://192.168.8.100:54841</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +386,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Montserrat"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Montserrat Regular"/>
     </font>
   </fonts>
   <fills count="13">
@@ -602,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,15 +888,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>655320</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2276475</xdr:colOff>
+          <xdr:colOff>2278380</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -933,7 +945,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1234,31 +1246,31 @@
   </sheetPr>
   <dimension ref="A2:AW120"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="39.25" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="19" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="19" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="22.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.59765625" style="1" customWidth="1"/>
     <col min="10" max="29" width="9" style="1"/>
     <col min="30" max="49" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" s="22" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:49" s="22" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="23"/>
       <c r="C2" s="19">
         <f>SUM(C4:C6)</f>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -1307,7 +1319,7 @@
       <c r="AV2" s="21"/>
       <c r="AW2" s="21"/>
     </row>
-    <row r="3" spans="1:49" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
@@ -1327,21 +1339,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="33">
         <f>COUNTIF(NODES!F2:F40,B4)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="34">
         <f>COUNTIFS(NODES!J2:J40,"1",NODES!F2:F40,'OPC-UA SERVERS'!B4)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="35">
         <f>COUNTIFS(NODES!K2:K40,"1",NODES!F2:F40,'OPC-UA SERVERS'!B4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>7</v>
@@ -1351,9 +1363,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C5" s="36">
         <f>COUNTIF(NODES!F2:F40,B5)</f>
@@ -1375,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>81</v>
       </c>
@@ -1399,9 +1411,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -1414,7 +1426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="43" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="43" t="s">
         <v>68</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="43" t="s">
         <v>62</v>
       </c>
@@ -1471,7 +1483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="43" t="s">
         <v>69</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="43" t="s">
         <v>11</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="43" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="43" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="43" t="s">
         <v>19</v>
       </c>
@@ -1516,205 +1528,205 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I29" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I30" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I31" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I34" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I35" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I36" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I37" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="9:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1729,27 +1741,27 @@
   </sheetPr>
   <dimension ref="A1:BN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.8984375" style="17" customWidth="1"/>
     <col min="8" max="8" width="17" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="43.625" style="2" customWidth="1"/>
-    <col min="13" max="66" width="10.875" style="2"/>
+    <col min="9" max="9" width="14.3984375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.8984375" style="1"/>
+    <col min="12" max="12" width="43.59765625" style="2" customWidth="1"/>
+    <col min="13" max="66" width="10.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1781,9 +1793,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C2" s="51">
         <v>0</v>
@@ -1792,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -1814,15 +1826,15 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="20">
         <v>2</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>5</v>
@@ -1841,15 +1853,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="20">
         <v>3</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>58</v>
@@ -1868,15 +1880,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="20">
         <v>4</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>60</v>
@@ -1892,15 +1904,15 @@
       </c>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" s="20">
         <v>5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>37</v>
@@ -1919,12 +1931,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="20">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>40</v>
@@ -1946,12 +1958,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="20">
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>42</v>
@@ -1973,12 +1985,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="20">
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>44</v>
@@ -2000,18 +2012,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="20">
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>7</v>
@@ -2024,18 +2036,18 @@
       </c>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="20">
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>7</v>
@@ -2051,18 +2063,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="20">
         <v>11</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>7</v>
@@ -2078,18 +2090,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="20">
         <v>12</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>7</v>
@@ -2105,18 +2117,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="20">
         <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>7</v>
@@ -2132,7 +2144,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="20">
         <v>14</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="20">
         <v>15</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="20">
         <v>16</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="20">
         <v>17</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="20">
         <v>18</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="20">
         <v>19</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="20">
         <v>20</v>
       </c>
@@ -2321,7 +2333,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="20">
         <v>21</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="20">
         <v>22</v>
       </c>
@@ -2375,7 +2387,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="20">
         <v>23</v>
       </c>
@@ -2402,7 +2414,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="20">
         <v>24</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="20">
         <v>25</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>5</v>
@@ -2456,14 +2468,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="20">
         <v>26</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="52" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -2483,12 +2495,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="20">
         <v>27</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>25</v>
@@ -2510,12 +2522,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="20">
         <v>28</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>64</v>
@@ -2537,12 +2549,12 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" s="20">
         <v>29</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>26</v>
@@ -2564,12 +2576,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="20">
         <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>26</v>
@@ -2591,12 +2603,12 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="20">
         <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>27</v>
@@ -2618,12 +2630,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="20">
         <v>32</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>28</v>
@@ -2645,12 +2657,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="20">
         <v>33</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>29</v>
@@ -2672,12 +2684,12 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="20">
         <v>34</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>30</v>
@@ -2699,12 +2711,12 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E36" s="20">
         <v>35</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>31</v>
@@ -2726,12 +2738,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="20">
         <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>32</v>
@@ -2753,12 +2765,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E38" s="20">
         <v>37</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>71</v>
@@ -2780,12 +2792,12 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E39" s="20">
         <v>38</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>23</v>
@@ -2807,11 +2819,13 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:12" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E40" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="14"/>
       <c r="I40" s="3"/>
@@ -2822,12 +2836,12 @@
         <v>Falta información sobre la variable a controlar</v>
       </c>
     </row>
-    <row r="41" spans="5:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="5:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="5:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="E1:K40" xr:uid="{33DB3F6B-CBC3-E141-9930-4B9C75CBDB27}"/>
@@ -2897,15 +2911,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
+                <xdr:colOff>655320</xdr:colOff>
                 <xdr:row>46</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2276475</xdr:colOff>
+                <xdr:colOff>2278380</xdr:colOff>
                 <xdr:row>48</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
